--- a/01CommonDataForBattery/z_BalancerCurrentMeasurement.xlsx
+++ b/01CommonDataForBattery/z_BalancerCurrentMeasurement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School Related\Masters\00-Grad_Research\Projects\00BattManager\03DataGen\01CommonDataForBattery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD000F-4DB6-4BEB-88AC-26869D0E2164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DAE23-5C30-4F61-935E-CE8F0ACD0E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{7F21F5D0-71D5-4345-AB2F-02B2A07085A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{7F21F5D0-71D5-4345-AB2F-02B2A07085A9}"/>
   </bookViews>
   <sheets>
     <sheet name="4-Cell Config" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,19 @@
     <sheet name="8-Cell Config Rnd4 -AfterResChg" sheetId="6" r:id="rId6"/>
     <sheet name="4-Cell Config Rnd4 -AfterResChg" sheetId="7" r:id="rId7"/>
     <sheet name="Eff Measurement -AfterResChg" sheetId="8" r:id="rId8"/>
+    <sheet name="4-Cell Config Rnd5_B4_RTON_chg" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="63">
   <si>
     <t>Average</t>
   </si>
@@ -245,6 +238,36 @@
   </si>
   <si>
     <t>Current Vals</t>
+  </si>
+  <si>
+    <t>Stack Volt</t>
+  </si>
+  <si>
+    <t>Sanyo Cells</t>
+  </si>
+  <si>
+    <t>Charge Eff</t>
+  </si>
+  <si>
+    <t>Equivalent R_shunt_cell</t>
+  </si>
+  <si>
+    <t>Equivalent R_shunt_stack</t>
+  </si>
+  <si>
+    <t>peakCurr</t>
+  </si>
+  <si>
+    <t>Curr_RMS_real</t>
+  </si>
+  <si>
+    <t>Curr_RMS (100% eff)</t>
+  </si>
+  <si>
+    <t>Curr_AVG (100% eff)</t>
+  </si>
+  <si>
+    <t>Curr_AVG_real</t>
   </si>
 </sst>
 </file>
@@ -472,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,6 +562,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -939,100 +974,100 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="O1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-      <c r="V1" s="38" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="V1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AC1" s="32" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AC1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="34"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
+      <c r="AJ1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
-      <c r="AQ1" s="43" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
+      <c r="AQ1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AX1" s="32" t="s">
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AX1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="34"/>
-      <c r="BE1" s="32" t="s">
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="40"/>
+      <c r="BE1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="34"/>
-    </row>
-    <row r="2" spans="1:61" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="40"/>
+    </row>
+    <row r="2" spans="1:61" s="2" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1169,7 +1204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1514,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1669,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>-0.05</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>0.05</v>
       </c>
@@ -1746,7 +1781,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>0.05</v>
       </c>
@@ -1808,7 +1843,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>-0.05</v>
       </c>
@@ -1879,7 +1914,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>0.05</v>
       </c>
@@ -1953,7 +1988,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>0.05</v>
       </c>
@@ -2009,7 +2044,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>0.15</v>
       </c>
@@ -2065,7 +2100,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>-0.05</v>
       </c>
@@ -2121,7 +2156,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>0.1</v>
       </c>
@@ -2177,7 +2212,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>0.15</v>
       </c>
@@ -2233,7 +2268,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>0.15</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="17" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>0.05</v>
       </c>
@@ -2345,7 +2380,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="18" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>0.15</v>
       </c>
@@ -2401,7 +2436,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="19" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>0.05</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="20" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>0</v>
       </c>
@@ -2513,7 +2548,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="21" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>0.05</v>
       </c>
@@ -2569,7 +2604,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="22" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>0.05</v>
       </c>
@@ -2625,7 +2660,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="23" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -2681,7 +2716,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="24" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>0.05</v>
       </c>
@@ -2737,7 +2772,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="25" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>0.05</v>
       </c>
@@ -2793,7 +2828,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="26" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>0.1</v>
       </c>
@@ -2849,7 +2884,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="27" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>0.1</v>
       </c>
@@ -2905,7 +2940,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>0.15</v>
       </c>
@@ -2961,7 +2996,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="29" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>0.05</v>
       </c>
@@ -3017,7 +3052,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="30" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>0.1</v>
       </c>
@@ -3073,7 +3108,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="31" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>0.05</v>
       </c>
@@ -3129,7 +3164,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="32" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>0</v>
       </c>
@@ -3185,7 +3220,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="33" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>0</v>
       </c>
@@ -3241,7 +3276,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="34" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>0.1</v>
       </c>
@@ -3297,7 +3332,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="35" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>0</v>
       </c>
@@ -3353,7 +3388,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="36" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>0</v>
       </c>
@@ -3409,7 +3444,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="37" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>0</v>
       </c>
@@ -3465,7 +3500,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="38" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>0</v>
       </c>
@@ -3521,7 +3556,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="39" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>0.05</v>
       </c>
@@ -3577,7 +3612,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="40" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>0.05</v>
       </c>
@@ -3633,7 +3668,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="41" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>0.15</v>
       </c>
@@ -3689,7 +3724,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="42" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>0</v>
       </c>
@@ -3745,7 +3780,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="43" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>0.05</v>
       </c>
@@ -3801,7 +3836,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="44" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>0</v>
       </c>
@@ -3857,7 +3892,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="45" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>-0.05</v>
       </c>
@@ -3913,7 +3948,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="46" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>0.05</v>
       </c>
@@ -3969,7 +4004,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="47" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>0.1</v>
       </c>
@@ -4025,7 +4060,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="48" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>0.15</v>
       </c>
@@ -4081,7 +4116,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="49" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>-0.05</v>
       </c>
@@ -4137,7 +4172,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="50" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>0.05</v>
       </c>
@@ -4193,7 +4228,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="51" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>0.05</v>
       </c>
@@ -4249,7 +4284,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="52" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>0.05</v>
       </c>
@@ -4305,7 +4340,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="53" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>0</v>
       </c>
@@ -4361,7 +4396,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="54" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>0</v>
       </c>
@@ -4417,7 +4452,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="55" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>0.1</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="56" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>0</v>
       </c>
@@ -4529,7 +4564,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="57" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>0</v>
       </c>
@@ -4585,7 +4620,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="58" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>0.05</v>
       </c>
@@ -4641,7 +4676,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="59" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>0</v>
       </c>
@@ -4697,7 +4732,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="60" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>0.05</v>
       </c>
@@ -4753,7 +4788,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="61" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>0</v>
       </c>
@@ -4809,7 +4844,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="62" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>0.15</v>
       </c>
@@ -4865,7 +4900,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="63" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>-0.05</v>
       </c>
@@ -4921,7 +4956,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="64" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>0.1</v>
       </c>
@@ -4977,7 +5012,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="65" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>0</v>
       </c>
@@ -5033,7 +5068,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="66" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>0.05</v>
       </c>
@@ -5089,7 +5124,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="67" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>0.1</v>
       </c>
@@ -5145,7 +5180,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="68" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>0</v>
       </c>
@@ -5201,7 +5236,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="69" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>0</v>
       </c>
@@ -5257,7 +5292,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="70" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>0.05</v>
       </c>
@@ -5313,7 +5348,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="71" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>0.05</v>
       </c>
@@ -5369,7 +5404,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="72" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>0.05</v>
       </c>
@@ -5425,7 +5460,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="73" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>0.1</v>
       </c>
@@ -5481,7 +5516,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="74" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>0.05</v>
       </c>
@@ -5537,7 +5572,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="75" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>0</v>
       </c>
@@ -5593,7 +5628,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="76" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>0.1</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="77" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>0</v>
       </c>
@@ -5705,7 +5740,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="78" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>-0.05</v>
       </c>
@@ -5761,7 +5796,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="79" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D79">
         <v>0.05</v>
       </c>
@@ -5817,7 +5852,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="80" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D80">
         <v>0.1</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="81" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>0.05</v>
       </c>
@@ -5923,7 +5958,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="82" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>0.05</v>
       </c>
@@ -5967,7 +6002,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="83" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D83">
         <v>0.1</v>
       </c>
@@ -6011,7 +6046,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="84" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D84">
         <v>0.1</v>
       </c>
@@ -6055,7 +6090,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="85" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D85">
         <v>0</v>
       </c>
@@ -6099,7 +6134,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="86" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>0</v>
       </c>
@@ -6143,7 +6178,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="87" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>0.05</v>
       </c>
@@ -6187,7 +6222,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="88" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>0.05</v>
       </c>
@@ -6231,7 +6266,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="89" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>0.05</v>
       </c>
@@ -6269,7 +6304,7 @@
         <v>-5.31</v>
       </c>
     </row>
-    <row r="90" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>0.05</v>
       </c>
@@ -6307,7 +6342,7 @@
         <v>-5.26</v>
       </c>
     </row>
-    <row r="91" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>0</v>
       </c>
@@ -6345,7 +6380,7 @@
         <v>-5.26</v>
       </c>
     </row>
-    <row r="92" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>0.1</v>
       </c>
@@ -6383,7 +6418,7 @@
         <v>-5.31</v>
       </c>
     </row>
-    <row r="93" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>0</v>
       </c>
@@ -6421,7 +6456,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="94" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>0.05</v>
       </c>
@@ -6459,7 +6494,7 @@
         <v>-5.31</v>
       </c>
     </row>
-    <row r="95" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>0.05</v>
       </c>
@@ -6497,7 +6532,7 @@
         <v>-5.26</v>
       </c>
     </row>
-    <row r="96" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>0.1</v>
       </c>
@@ -6529,7 +6564,7 @@
         <v>-5.1100000000000003</v>
       </c>
     </row>
-    <row r="97" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>0.1</v>
       </c>
@@ -6561,7 +6596,7 @@
         <v>-5.1100000000000003</v>
       </c>
     </row>
-    <row r="98" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>0.05</v>
       </c>
@@ -6593,7 +6628,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="99" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>0</v>
       </c>
@@ -6625,7 +6660,7 @@
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="100" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>0</v>
       </c>
@@ -6651,7 +6686,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="101" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>0</v>
       </c>
@@ -6677,7 +6712,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="102" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D102">
         <v>0.05</v>
       </c>
@@ -6703,7 +6738,7 @@
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="103" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D103">
         <v>0</v>
       </c>
@@ -6729,7 +6764,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="104" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:40" x14ac:dyDescent="0.3">
       <c r="D104">
         <v>-0.05</v>
       </c>
@@ -6755,7 +6790,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="105" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:40" x14ac:dyDescent="0.3">
       <c r="R105">
         <v>0.34</v>
       </c>
@@ -6775,7 +6810,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="106" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:40" x14ac:dyDescent="0.3">
       <c r="R106">
         <v>0.49</v>
       </c>
@@ -6795,7 +6830,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="107" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:40" x14ac:dyDescent="0.3">
       <c r="R107">
         <v>0.57999999999999996</v>
       </c>
@@ -6815,7 +6850,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="108" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:40" x14ac:dyDescent="0.3">
       <c r="R108">
         <v>0.39</v>
       </c>
@@ -6835,7 +6870,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="109" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:40" x14ac:dyDescent="0.3">
       <c r="AM109">
         <v>-0.97</v>
       </c>
@@ -6843,7 +6878,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="110" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:40" x14ac:dyDescent="0.3">
       <c r="AM110">
         <v>-0.83</v>
       </c>
@@ -6851,7 +6886,7 @@
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="111" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:40" x14ac:dyDescent="0.3">
       <c r="AM111">
         <v>-0.63</v>
       </c>
@@ -6859,7 +6894,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="112" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:40" x14ac:dyDescent="0.3">
       <c r="AM112">
         <v>-0.97</v>
       </c>
@@ -6867,7 +6902,7 @@
         <v>-5.1100000000000003</v>
       </c>
     </row>
-    <row r="113" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM113">
         <v>-0.68</v>
       </c>
@@ -6875,7 +6910,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="114" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM114">
         <v>-1.07</v>
       </c>
@@ -6883,7 +6918,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="115" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM115">
         <v>-1.02</v>
       </c>
@@ -6891,7 +6926,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="116" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM116">
         <v>-1.1200000000000001</v>
       </c>
@@ -6899,7 +6934,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="117" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM117">
         <v>-0.88</v>
       </c>
@@ -6907,7 +6942,7 @@
         <v>-4.97</v>
       </c>
     </row>
-    <row r="118" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM118">
         <v>-0.92</v>
       </c>
@@ -6915,7 +6950,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="119" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM119">
         <v>-1.07</v>
       </c>
@@ -6923,7 +6958,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="120" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM120">
         <v>-0.88</v>
       </c>
@@ -6931,7 +6966,7 @@
         <v>-5.35</v>
       </c>
     </row>
-    <row r="121" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM121">
         <v>-0.78</v>
       </c>
@@ -6939,7 +6974,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="122" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM122">
         <v>-0.88</v>
       </c>
@@ -6947,7 +6982,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="123" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM123">
         <v>-0.88</v>
       </c>
@@ -6955,7 +6990,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="124" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM124">
         <v>-0.49</v>
       </c>
@@ -6963,7 +6998,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="125" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM125">
         <v>-0.88</v>
       </c>
@@ -6971,7 +7006,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="126" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM126">
         <v>-1.07</v>
       </c>
@@ -6979,7 +7014,7 @@
         <v>-5.21</v>
       </c>
     </row>
-    <row r="127" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM127">
         <v>-0.49</v>
       </c>
@@ -6987,7 +7022,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="128" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM128">
         <v>-0.54</v>
       </c>
@@ -6995,7 +7030,7 @@
         <v>-5.1100000000000003</v>
       </c>
     </row>
-    <row r="129" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM129">
         <v>-1.1200000000000001</v>
       </c>
@@ -7003,7 +7038,7 @@
         <v>-5.1100000000000003</v>
       </c>
     </row>
-    <row r="130" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM130">
         <v>-0.39</v>
       </c>
@@ -7011,7 +7046,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="131" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM131">
         <v>-0.49</v>
       </c>
@@ -7019,7 +7054,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="132" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM132">
         <v>-0.63</v>
       </c>
@@ -7027,7 +7062,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="133" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM133">
         <v>-0.34</v>
       </c>
@@ -7035,7 +7070,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="134" spans="39:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="39:40" x14ac:dyDescent="0.3">
       <c r="AM134">
         <v>-0.63</v>
       </c>
@@ -7068,86 +7103,86 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="O1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-      <c r="V1" s="38" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="V1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="34"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="43" t="s">
+      <c r="AQ1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
-      <c r="AX1" s="32" t="s">
+      <c r="AX1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="34"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="40"/>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
-      <c r="BE1" s="43" t="s">
+      <c r="BE1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-    </row>
-    <row r="2" spans="1:61" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+    </row>
+    <row r="2" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -7296,7 +7331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -7463,7 +7498,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -7630,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -7797,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>0.05</v>
       </c>
@@ -7853,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
@@ -7909,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>-0.05</v>
       </c>
@@ -7965,7 +8000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0</v>
       </c>
@@ -8021,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0</v>
       </c>
@@ -8077,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.05</v>
       </c>
@@ -8133,7 +8168,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0</v>
       </c>
@@ -8189,7 +8224,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
@@ -8245,7 +8280,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>0</v>
       </c>
@@ -8301,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>0</v>
       </c>
@@ -8357,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>0.05</v>
       </c>
@@ -8413,7 +8448,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>-0.05</v>
       </c>
@@ -8469,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>0.05</v>
       </c>
@@ -8525,7 +8560,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>0.05</v>
       </c>
@@ -8581,7 +8616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>0.15</v>
       </c>
@@ -8637,7 +8672,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>-0.05</v>
       </c>
@@ -8693,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>0.05</v>
       </c>
@@ -8749,7 +8784,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>0.05</v>
       </c>
@@ -8805,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>0.05</v>
       </c>
@@ -8861,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>0.05</v>
       </c>
@@ -8917,7 +8952,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="26" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>0.05</v>
       </c>
@@ -8973,7 +9008,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
@@ -9029,7 +9064,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
         <v>-0.05</v>
       </c>
@@ -9085,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <v>0.05</v>
       </c>
@@ -9141,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
         <v>0</v>
       </c>
@@ -9197,7 +9232,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
         <v>0.1</v>
       </c>
@@ -9253,7 +9288,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
         <v>0.15</v>
       </c>
@@ -9309,7 +9344,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
@@ -9365,7 +9400,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="34" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>0.05</v>
       </c>
@@ -9421,7 +9456,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>0.1</v>
       </c>
@@ -9477,7 +9512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>0</v>
       </c>
@@ -9533,7 +9568,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="37" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>0.05</v>
       </c>
@@ -9589,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>0.1</v>
       </c>
@@ -9645,7 +9680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>0.1</v>
       </c>
@@ -9701,7 +9736,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D40" s="1">
         <v>0</v>
       </c>
@@ -9757,7 +9792,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>0.05</v>
       </c>
@@ -9813,7 +9848,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>0</v>
       </c>
@@ -9869,7 +9904,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>0</v>
       </c>
@@ -9925,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D44" s="1">
         <v>0.05</v>
       </c>
@@ -9981,7 +10016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D45" s="1">
         <v>0.05</v>
       </c>
@@ -10037,7 +10072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>0.1</v>
       </c>
@@ -10093,7 +10128,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>0</v>
       </c>
@@ -10149,7 +10184,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="48" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D48" s="1">
         <v>0.1</v>
       </c>
@@ -10205,7 +10240,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>0</v>
       </c>
@@ -10261,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <v>0.15</v>
       </c>
@@ -10317,7 +10352,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D51" s="1">
         <v>0</v>
       </c>
@@ -10373,7 +10408,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="52" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D52" s="1">
         <v>-0.05</v>
       </c>
@@ -10429,7 +10464,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D53" s="1">
         <v>0</v>
       </c>
@@ -10485,7 +10520,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="54" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D54" s="1">
         <v>-0.05</v>
       </c>
@@ -10541,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D55" s="1">
         <v>0.05</v>
       </c>
@@ -10597,7 +10632,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D56" s="1">
         <v>0.15</v>
       </c>
@@ -10653,7 +10688,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D57" s="1">
         <v>-0.05</v>
       </c>
@@ -10709,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D58" s="1">
         <v>0</v>
       </c>
@@ -10765,7 +10800,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D59" s="1">
         <v>0.1</v>
       </c>
@@ -10821,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D60" s="1">
         <v>0.1</v>
       </c>
@@ -10877,7 +10912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D61" s="1">
         <v>0.05</v>
       </c>
@@ -10933,7 +10968,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D62" s="1">
         <v>0.1</v>
       </c>
@@ -10989,7 +11024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D63" s="1">
         <v>0.05</v>
       </c>
@@ -11045,7 +11080,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D64" s="1">
         <v>0.1</v>
       </c>
@@ -11101,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D65" s="1">
         <v>0</v>
       </c>
@@ -11157,7 +11192,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D66" s="1">
         <v>0.05</v>
       </c>
@@ -11213,7 +11248,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D67" s="1">
         <v>0</v>
       </c>
@@ -11269,7 +11304,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D68" s="1">
         <v>0.05</v>
       </c>
@@ -11325,7 +11360,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D69" s="1">
         <v>-0.05</v>
       </c>
@@ -11381,7 +11416,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D70" s="1">
         <v>0.05</v>
       </c>
@@ -11437,7 +11472,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D71" s="1">
         <v>0</v>
       </c>
@@ -11493,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D72" s="1">
         <v>0.05</v>
       </c>
@@ -11549,7 +11584,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D73" s="1">
         <v>0.05</v>
       </c>
@@ -11605,7 +11640,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D74" s="1">
         <v>0.1</v>
       </c>
@@ -11661,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D75" s="1">
         <v>0.1</v>
       </c>
@@ -11717,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D76" s="1">
         <v>0.05</v>
       </c>
@@ -11773,7 +11808,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D77" s="1">
         <v>-0.05</v>
       </c>
@@ -11829,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D78" s="1">
         <v>-0.05</v>
       </c>
@@ -11885,7 +11920,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D79" s="1">
         <v>-0.05</v>
       </c>
@@ -11941,7 +11976,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D80" s="1">
         <v>0.1</v>
       </c>
@@ -11997,7 +12032,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D81" s="1">
         <v>0</v>
       </c>
@@ -12053,7 +12088,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K82" s="1">
         <v>-0.78</v>
       </c>
@@ -12103,7 +12138,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K83" s="1">
         <v>-0.68</v>
       </c>
@@ -12153,7 +12188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K84" s="1">
         <v>-0.73</v>
       </c>
@@ -12203,7 +12238,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="85" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K85" s="1">
         <v>-0.57999999999999996</v>
       </c>
@@ -12253,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K86" s="1">
         <v>-0.24</v>
       </c>
@@ -12303,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K87" s="1">
         <v>-0.57999999999999996</v>
       </c>
@@ -12353,7 +12388,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="88" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K88" s="1">
         <v>-0.49</v>
       </c>
@@ -12403,7 +12438,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="89" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K89" s="1">
         <v>-0.34</v>
       </c>
@@ -12453,7 +12488,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K90" s="1">
         <v>-0.24</v>
       </c>
@@ -12503,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K91" s="1">
         <v>-0.39</v>
       </c>
@@ -12541,7 +12576,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="92" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K92" s="1">
         <v>-0.44</v>
       </c>
@@ -12579,7 +12614,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="93" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K93" s="1">
         <v>-0.44</v>
       </c>
@@ -12617,7 +12652,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="94" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K94" s="1">
         <v>-0.97</v>
       </c>
@@ -12655,7 +12690,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="95" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K95" s="1">
         <v>-0.97</v>
       </c>
@@ -12687,7 +12722,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="96" spans="4:61" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:61" x14ac:dyDescent="0.3">
       <c r="K96" s="1">
         <v>-0.39</v>
       </c>
@@ -12719,7 +12754,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="97" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K97" s="1">
         <v>-0.78</v>
       </c>
@@ -12751,7 +12786,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="98" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K98" s="1">
         <v>-0.49</v>
       </c>
@@ -12783,7 +12818,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="99" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K99" s="1">
         <v>-0.73</v>
       </c>
@@ -12815,7 +12850,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="100" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K100" s="1">
         <v>-0.57999999999999996</v>
       </c>
@@ -12847,7 +12882,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="101" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K101" s="1">
         <v>-0.63</v>
       </c>
@@ -12879,7 +12914,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="102" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K102" s="1">
         <v>-0.39</v>
       </c>
@@ -12905,7 +12940,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="103" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K103" s="1">
         <v>-0.39</v>
       </c>
@@ -12931,7 +12966,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="104" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K104" s="1">
         <v>-0.68</v>
       </c>
@@ -12957,7 +12992,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="105" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K105" s="1">
         <v>-0.68</v>
       </c>
@@ -12983,7 +13018,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="106" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K106" s="1">
         <v>-0.92</v>
       </c>
@@ -13009,7 +13044,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="107" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K107" s="1">
         <v>-0.34</v>
       </c>
@@ -13029,7 +13064,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="108" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K108" s="1">
         <v>-0.44</v>
       </c>
@@ -13049,7 +13084,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="109" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K109" s="1">
         <v>-0.49</v>
       </c>
@@ -13069,7 +13104,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="110" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K110" s="1">
         <v>-0.57999999999999996</v>
       </c>
@@ -13083,7 +13118,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="111" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K111" s="1">
         <v>-0.73</v>
       </c>
@@ -13097,7 +13132,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="112" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K112" s="1">
         <v>-0.49</v>
       </c>
@@ -13111,7 +13146,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="113" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K113" s="1">
         <v>-0.28999999999999998</v>
       </c>
@@ -13125,7 +13160,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="114" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K114" s="1">
         <v>-0.68</v>
       </c>
@@ -13139,7 +13174,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="115" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K115" s="1">
         <v>-0.68</v>
       </c>
@@ -13153,7 +13188,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="116" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K116" s="1">
         <v>-0.88</v>
       </c>
@@ -13167,7 +13202,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="117" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K117" s="1">
         <v>-0.78</v>
       </c>
@@ -13181,7 +13216,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="118" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:47" x14ac:dyDescent="0.3">
       <c r="K118" s="1">
         <v>-0.44</v>
       </c>
@@ -13195,7 +13230,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="119" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT119" s="1">
         <v>0.34</v>
       </c>
@@ -13203,7 +13238,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="120" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT120" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -13211,7 +13246,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="121" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT121" s="1">
         <v>0.54</v>
       </c>
@@ -13219,7 +13254,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="122" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT122" s="1">
         <v>0.54</v>
       </c>
@@ -13227,7 +13262,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="123" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT123" s="1">
         <v>0.34</v>
       </c>
@@ -13235,7 +13270,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="124" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT124" s="1">
         <v>0.73</v>
       </c>
@@ -13243,7 +13278,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="125" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT125" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -13251,7 +13286,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="126" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT126" s="1">
         <v>0.39</v>
       </c>
@@ -13259,7 +13294,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="127" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT127" s="1">
         <v>0.1</v>
       </c>
@@ -13267,7 +13302,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="128" spans="11:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:47" x14ac:dyDescent="0.3">
       <c r="AT128" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -13275,7 +13310,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="129" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT129" s="1">
         <v>0.54</v>
       </c>
@@ -13283,7 +13318,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="130" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT130" s="1">
         <v>0.73</v>
       </c>
@@ -13291,7 +13326,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="131" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT131" s="1">
         <v>0.44</v>
       </c>
@@ -13299,7 +13334,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="132" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT132" s="1">
         <v>0.54</v>
       </c>
@@ -13307,7 +13342,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="133" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT133" s="1">
         <v>0.44</v>
       </c>
@@ -13315,7 +13350,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="134" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT134" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -13323,7 +13358,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="135" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT135" s="1">
         <v>0.44</v>
       </c>
@@ -13331,7 +13366,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="136" spans="46:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="46:47" x14ac:dyDescent="0.3">
       <c r="AT136" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -13363,56 +13398,56 @@
       <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" customWidth="1"/>
+    <col min="38" max="38" width="11.44140625" customWidth="1"/>
+    <col min="39" max="39" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-      <c r="V1" s="35" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="V1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-    </row>
-    <row r="2" spans="1:41" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+    </row>
+    <row r="2" spans="1:41" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -13493,7 +13528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -13580,7 +13615,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -13671,7 +13706,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -13762,7 +13797,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>0</v>
       </c>
@@ -13794,7 +13829,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.05</v>
       </c>
@@ -13826,7 +13861,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>-0.05</v>
       </c>
@@ -13858,7 +13893,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.05</v>
       </c>
@@ -13893,7 +13928,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0.05</v>
       </c>
@@ -13937,7 +13972,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -13968,16 +14003,16 @@
       <c r="AG11" s="1">
         <v>1.51</v>
       </c>
-      <c r="AK11" s="45" t="s">
+      <c r="AK11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
       <c r="AO11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0.05</v>
       </c>
@@ -14015,7 +14050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>0.05</v>
       </c>
@@ -14059,7 +14094,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>0.05</v>
       </c>
@@ -14103,7 +14138,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>0.05</v>
       </c>
@@ -14147,7 +14182,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>0</v>
       </c>
@@ -14191,7 +14226,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>0</v>
       </c>
@@ -14235,7 +14270,7 @@
         <v>3.8780000000000001</v>
       </c>
     </row>
-    <row r="18" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>0.1</v>
       </c>
@@ -14279,7 +14314,7 @@
         <v>3.984</v>
       </c>
     </row>
-    <row r="19" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>0.05</v>
       </c>
@@ -14311,7 +14346,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="20" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>0</v>
       </c>
@@ -14343,7 +14378,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="21" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
@@ -14375,7 +14410,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="22" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>0.05</v>
       </c>
@@ -14407,7 +14442,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="23" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>0.05</v>
       </c>
@@ -14439,7 +14474,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="24" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>0.05</v>
       </c>
@@ -14471,7 +14506,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="25" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>0</v>
       </c>
@@ -14503,7 +14538,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="26" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>0.1</v>
       </c>
@@ -14535,7 +14570,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="27" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>0.05</v>
       </c>
@@ -14567,7 +14602,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="28" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
         <v>0.05</v>
       </c>
@@ -14599,7 +14634,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="29" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <v>0.05</v>
       </c>
@@ -14631,7 +14666,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="30" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
         <v>0</v>
       </c>
@@ -14663,7 +14698,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="31" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
         <v>0</v>
       </c>
@@ -14695,7 +14730,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="32" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:41" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
         <v>0.05</v>
       </c>
@@ -14727,7 +14762,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="33" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>0</v>
       </c>
@@ -14759,7 +14794,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="34" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>0.1</v>
       </c>
@@ -14791,7 +14826,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="35" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>0.05</v>
       </c>
@@ -14823,7 +14858,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="36" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>0</v>
       </c>
@@ -14855,7 +14890,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="37" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>0.05</v>
       </c>
@@ -14887,7 +14922,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="38" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>0.05</v>
       </c>
@@ -14919,7 +14954,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="39" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>0.05</v>
       </c>
@@ -14951,7 +14986,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="40" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D40" s="1">
         <v>0</v>
       </c>
@@ -14983,7 +15018,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="41" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>0</v>
       </c>
@@ -15015,7 +15050,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="42" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>-0.05</v>
       </c>
@@ -15047,7 +15082,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="43" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>0</v>
       </c>
@@ -15079,7 +15114,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="44" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D44" s="1">
         <v>0</v>
       </c>
@@ -15111,7 +15146,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="45" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D45" s="1">
         <v>0.05</v>
       </c>
@@ -15143,7 +15178,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="46" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>0</v>
       </c>
@@ -15175,7 +15210,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="47" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>0</v>
       </c>
@@ -15207,7 +15242,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="48" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D48" s="1">
         <v>0.05</v>
       </c>
@@ -15239,7 +15274,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="49" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>0.05</v>
       </c>
@@ -15271,7 +15306,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="50" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <v>0.05</v>
       </c>
@@ -15303,7 +15338,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="51" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D51" s="1">
         <v>0.05</v>
       </c>
@@ -15335,7 +15370,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="52" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D52" s="1">
         <v>0.1</v>
       </c>
@@ -15367,7 +15402,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="53" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D53" s="1">
         <v>0.05</v>
       </c>
@@ -15399,7 +15434,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="54" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D54" s="1">
         <v>0.1</v>
       </c>
@@ -15407,7 +15442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D55" s="1">
         <v>0.05</v>
       </c>
@@ -15437,106 +15472,107 @@
       <selection activeCell="A3" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="41" width="9.140625" style="1"/>
+    <col min="11" max="41" width="9.109375" style="1"/>
     <col min="42" max="42" width="10" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="9.85546875" style="1" customWidth="1"/>
-    <col min="45" max="51" width="9.140625" style="1"/>
-    <col min="52" max="52" width="9.28515625" style="1" customWidth="1"/>
-    <col min="53" max="74" width="9.140625" style="1"/>
-    <col min="91" max="16384" width="9.140625" style="1"/>
+    <col min="43" max="43" width="11.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.88671875" style="1" customWidth="1"/>
+    <col min="45" max="51" width="9.109375" style="1"/>
+    <col min="52" max="52" width="9.33203125" style="1" customWidth="1"/>
+    <col min="53" max="74" width="9.109375" style="1"/>
+    <col min="75" max="90" width="8.88671875" customWidth="1"/>
+    <col min="91" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="Q1" s="46" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="Q1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="Y1" s="53" t="s">
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="Y1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AG1" s="46" t="s">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AG1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AO1" s="48" t="s">
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AO1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AW1" s="46" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AW1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BE1" s="53" t="s">
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BE1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="55"/>
-      <c r="BN1" s="46" t="s">
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="61"/>
+      <c r="BN1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-    </row>
-    <row r="2" spans="1:72" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+    </row>
+    <row r="2" spans="1:72" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -15732,7 +15768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -15950,7 +15986,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -16168,7 +16204,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -16386,7 +16422,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E6" s="1">
         <v>-0.05</v>
       </c>
@@ -16469,7 +16505,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
         <v>-0.1</v>
       </c>
@@ -16552,7 +16588,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>0</v>
       </c>
@@ -16635,7 +16671,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>-0.1</v>
       </c>
@@ -16742,7 +16778,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>-0.1</v>
       </c>
@@ -16873,7 +16909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
         <v>-0.05</v>
       </c>
@@ -16919,9 +16955,9 @@
       <c r="AM11" s="1">
         <v>1.55</v>
       </c>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
       <c r="AS11" s="1">
         <v>-0.68</v>
       </c>
@@ -16959,7 +16995,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>0</v>
       </c>
@@ -17042,7 +17078,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>-0.1</v>
       </c>
@@ -17125,7 +17161,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>-0.1</v>
       </c>
@@ -17208,7 +17244,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>-0.05</v>
       </c>
@@ -17291,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>0.05</v>
       </c>
@@ -17374,7 +17410,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <v>0</v>
       </c>
@@ -17457,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>-0.14000000000000001</v>
       </c>
@@ -17540,7 +17576,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
         <v>-0.05</v>
       </c>
@@ -17623,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
         <v>-0.05</v>
       </c>
@@ -17706,7 +17742,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="21" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E21" s="1">
         <v>-0.1</v>
       </c>
@@ -17789,7 +17825,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>-0.05</v>
       </c>
@@ -17872,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <v>-0.05</v>
       </c>
@@ -17955,7 +17991,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E24" s="1">
         <v>0</v>
       </c>
@@ -18038,7 +18074,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="25" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <v>-0.05</v>
       </c>
@@ -18121,7 +18157,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="26" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <v>-0.1</v>
       </c>
@@ -18204,7 +18240,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <v>-0.05</v>
       </c>
@@ -18287,7 +18323,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="28" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E28" s="1">
         <v>0</v>
       </c>
@@ -18370,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>0</v>
       </c>
@@ -18453,7 +18489,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>-0.05</v>
       </c>
@@ -18536,7 +18572,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="31" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>-0.05</v>
       </c>
@@ -18619,7 +18655,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="32" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>-0.05</v>
       </c>
@@ -18702,7 +18738,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="33" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E33" s="1">
         <v>-0.1</v>
       </c>
@@ -18785,7 +18821,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="34" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E34" s="1">
         <v>-0.05</v>
       </c>
@@ -18868,7 +18904,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="35" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E35" s="1">
         <v>-0.05</v>
       </c>
@@ -18951,7 +18987,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E36" s="1">
         <v>0</v>
       </c>
@@ -19034,7 +19070,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="37" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E37" s="1">
         <v>-0.05</v>
       </c>
@@ -19117,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E38" s="1">
         <v>-0.14000000000000001</v>
       </c>
@@ -19200,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E39" s="1">
         <v>-0.05</v>
       </c>
@@ -19283,7 +19319,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E40" s="1">
         <v>0</v>
       </c>
@@ -19366,7 +19402,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E41" s="1">
         <v>-0.05</v>
       </c>
@@ -19449,7 +19485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
         <v>-0.05</v>
       </c>
@@ -19532,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <v>-0.05</v>
       </c>
@@ -19615,7 +19651,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="44" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E44" s="1">
         <v>0</v>
       </c>
@@ -19698,7 +19734,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="45" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E45" s="1">
         <v>-0.1</v>
       </c>
@@ -19781,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E46" s="1">
         <v>-0.05</v>
       </c>
@@ -19864,7 +19900,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E47" s="1">
         <v>-0.05</v>
       </c>
@@ -19947,7 +19983,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="48" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E48" s="1">
         <v>-0.1</v>
       </c>
@@ -20030,7 +20066,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="49" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E49" s="1">
         <v>-0.05</v>
       </c>
@@ -20113,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E50" s="1">
         <v>-0.1</v>
       </c>
@@ -20196,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E51" s="1">
         <v>-0.1</v>
       </c>
@@ -20279,7 +20315,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="52" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E52" s="1">
         <v>-0.05</v>
       </c>
@@ -20362,7 +20398,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E53" s="1">
         <v>0.05</v>
       </c>
@@ -20433,7 +20469,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E54" s="1">
         <v>0.1</v>
       </c>
@@ -20450,7 +20486,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="55" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <v>0.05</v>
       </c>
@@ -20493,107 +20529,107 @@
       <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="9.140625" style="1"/>
-    <col min="10" max="25" width="9.140625" style="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
+    <col min="10" max="25" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="J1" s="58" t="s">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="J1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="S1" s="58" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="S1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="AB1" s="58" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="AB1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AK1" s="58" t="s">
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AK1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-    </row>
-    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+    </row>
+    <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="J2" s="53" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="J2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
-      <c r="S2" s="46" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+      <c r="S2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="AB2" s="53" t="s">
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="AB2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="61"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="46" t="s">
+      <c r="AK2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-    </row>
-    <row r="3" spans="1:43" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+    </row>
+    <row r="3" spans="1:43" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -20704,7 +20740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -20828,7 +20864,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -20952,7 +20988,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -21076,7 +21112,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
         <v>0.05</v>
       </c>
@@ -21123,7 +21159,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>0.1</v>
       </c>
@@ -21170,7 +21206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>0.15</v>
       </c>
@@ -21180,11 +21216,11 @@
       <c r="G9" s="1">
         <v>0.1</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
       <c r="M9" s="1">
         <v>2.5583999999999998</v>
       </c>
@@ -21197,11 +21233,11 @@
       <c r="P9" s="1">
         <v>0.05</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
       <c r="V9" s="1">
         <v>3.5737000000000001</v>
       </c>
@@ -21214,11 +21250,11 @@
       <c r="Y9" s="1">
         <v>0.25</v>
       </c>
-      <c r="AB9" s="45" t="s">
+      <c r="AB9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
       <c r="AE9" s="1">
         <v>2.5743</v>
       </c>
@@ -21231,11 +21267,11 @@
       <c r="AH9" s="1">
         <v>0.1</v>
       </c>
-      <c r="AK9" s="45" t="s">
+      <c r="AK9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
       <c r="AN9" s="1">
         <v>3.7339000000000002</v>
       </c>
@@ -21249,7 +21285,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>0.05</v>
       </c>
@@ -21259,8 +21295,8 @@
       <c r="G10" s="1">
         <v>0.1</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
       <c r="N10" s="1">
         <v>-0.59</v>
       </c>
@@ -21270,8 +21306,8 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
       <c r="W10" s="1">
         <v>0.39</v>
       </c>
@@ -21281,8 +21317,8 @@
       <c r="Y10" s="1">
         <v>0.05</v>
       </c>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
@@ -21294,8 +21330,8 @@
       <c r="AH10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
       <c r="AM10" s="26"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1">
@@ -21308,7 +21344,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
         <v>0.1</v>
       </c>
@@ -21318,11 +21354,11 @@
       <c r="G11" s="1">
         <v>-0.15</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
       <c r="M11" s="1">
         <v>13.36</v>
       </c>
@@ -21335,11 +21371,11 @@
       <c r="P11" s="1">
         <v>0.05</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
       <c r="V11" s="1">
         <v>13.76</v>
       </c>
@@ -21352,11 +21388,11 @@
       <c r="Y11" s="1">
         <v>0.05</v>
       </c>
-      <c r="AB11" s="45" t="s">
+      <c r="AB11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="1">
         <v>20.5</v>
       </c>
@@ -21369,11 +21405,11 @@
       <c r="AH11" s="1">
         <v>0</v>
       </c>
-      <c r="AK11" s="45" t="s">
+      <c r="AK11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
       <c r="AN11" s="1">
         <v>20.92</v>
       </c>
@@ -21387,7 +21423,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>0.05</v>
       </c>
@@ -21397,8 +21433,8 @@
       <c r="G12" s="1">
         <v>0.1</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
       <c r="N12" s="1">
         <v>-0.88</v>
       </c>
@@ -21408,8 +21444,8 @@
       <c r="P12" s="1">
         <v>0.25</v>
       </c>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
       <c r="W12" s="1">
         <v>0.49</v>
       </c>
@@ -21419,8 +21455,8 @@
       <c r="Y12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
@@ -21432,8 +21468,8 @@
       <c r="AH12" s="1">
         <v>0.15</v>
       </c>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="62"/>
       <c r="AM12" s="26"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1">
@@ -21446,7 +21482,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>0.05</v>
       </c>
@@ -21456,11 +21492,11 @@
       <c r="G13" s="1">
         <v>0.1</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="25">
         <f>ABS((M11*K4)/(M9*L4))</f>
         <v>0.79687575189374471</v>
@@ -21474,11 +21510,11 @@
       <c r="P13" s="1">
         <v>0.05</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
       <c r="V13" s="25">
         <f>(ABS((V9*U4)/(V11*T4)))</f>
         <v>0.77970112452476226</v>
@@ -21492,11 +21528,11 @@
       <c r="Y13" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB13" s="45" t="s">
+      <c r="AB13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
       <c r="AE13" s="25">
         <f>ABS((AE11*AC4)/(AE9*AD4))</f>
         <v>0.75578649779075069</v>
@@ -21510,11 +21546,11 @@
       <c r="AH13" s="1">
         <v>0.05</v>
       </c>
-      <c r="AK13" s="45" t="s">
+      <c r="AK13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
       <c r="AN13" s="25">
         <f>(ABS((AN9*AM4)/(AN11*AL4)))</f>
         <v>0.82704708083533574</v>
@@ -21529,7 +21565,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>0.05</v>
       </c>
@@ -21548,8 +21584,8 @@
       <c r="P14" s="1">
         <v>0.15</v>
       </c>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
       <c r="W14" s="1">
         <v>0.44</v>
       </c>
@@ -21559,8 +21595,8 @@
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
       <c r="AF14" s="1">
         <v>-0.39</v>
       </c>
@@ -21570,8 +21606,8 @@
       <c r="AH14" s="1">
         <v>0.15</v>
       </c>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
       <c r="AO14" s="1">
         <v>0.64</v>
       </c>
@@ -21582,7 +21618,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>0.05</v>
       </c>
@@ -21629,7 +21665,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>0.05</v>
       </c>
@@ -21676,7 +21712,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <v>0.1</v>
       </c>
@@ -21723,7 +21759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>0.05</v>
       </c>
@@ -21770,7 +21806,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
         <v>0</v>
       </c>
@@ -21817,7 +21853,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
         <v>0.1</v>
       </c>
@@ -21864,7 +21900,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E21" s="1">
         <v>0.1</v>
       </c>
@@ -21911,7 +21947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>0.05</v>
       </c>
@@ -21958,7 +21994,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <v>0</v>
       </c>
@@ -22005,7 +22041,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E24" s="1">
         <v>0.05</v>
       </c>
@@ -22052,7 +22088,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <v>0.05</v>
       </c>
@@ -22099,7 +22135,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <v>0.05</v>
       </c>
@@ -22146,7 +22182,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <v>0.05</v>
       </c>
@@ -22193,7 +22229,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E28" s="1">
         <v>0.1</v>
       </c>
@@ -22240,7 +22276,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>0.15</v>
       </c>
@@ -22287,7 +22323,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>0.1</v>
       </c>
@@ -22334,7 +22370,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>0.1</v>
       </c>
@@ -22381,7 +22417,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>0.05</v>
       </c>
@@ -22428,7 +22464,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E33" s="1">
         <v>0.1</v>
       </c>
@@ -22475,7 +22511,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E34" s="1">
         <v>0</v>
       </c>
@@ -22522,7 +22558,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E35" s="1">
         <v>0.05</v>
       </c>
@@ -22569,7 +22605,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E36" s="1">
         <v>0.1</v>
       </c>
@@ -22616,7 +22652,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E37" s="1">
         <v>0</v>
       </c>
@@ -22663,7 +22699,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E38" s="1">
         <v>0</v>
       </c>
@@ -22710,7 +22746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E39" s="1">
         <v>0.1</v>
       </c>
@@ -22757,7 +22793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E40" s="1">
         <v>0.15</v>
       </c>
@@ -22804,7 +22840,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E41" s="1">
         <v>0.1</v>
       </c>
@@ -22851,7 +22887,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
         <v>0.1</v>
       </c>
@@ -22898,7 +22934,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <v>0</v>
       </c>
@@ -22945,7 +22981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E44" s="1">
         <v>0.1</v>
       </c>
@@ -22992,7 +23028,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E45" s="1">
         <v>0</v>
       </c>
@@ -23039,7 +23075,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E46" s="1">
         <v>0</v>
       </c>
@@ -23086,7 +23122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E47" s="1">
         <v>0.15</v>
       </c>
@@ -23133,7 +23169,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E48" s="1">
         <v>0.05</v>
       </c>
@@ -23180,7 +23216,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E49" s="1">
         <v>0.1</v>
       </c>
@@ -23227,7 +23263,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E50" s="1">
         <v>0.05</v>
       </c>
@@ -23274,7 +23310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E51" s="1">
         <v>0.05</v>
       </c>
@@ -23321,7 +23357,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="52" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E52" s="1">
         <v>0.05</v>
       </c>
@@ -23368,7 +23404,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E53" s="1">
         <v>0.05</v>
       </c>
@@ -23463,105 +23499,105 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="26" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="26"/>
+    <col min="1" max="1" width="7.88671875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="26" customWidth="1"/>
+    <col min="3" max="9" width="9.109375" style="26"/>
     <col min="10" max="10" width="9" style="26" customWidth="1"/>
-    <col min="11" max="41" width="9.140625" style="26"/>
+    <col min="11" max="41" width="9.109375" style="26"/>
     <col min="42" max="42" width="10" style="26" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" style="26" customWidth="1"/>
-    <col min="44" max="44" width="9.85546875" style="26" customWidth="1"/>
-    <col min="45" max="51" width="9.140625" style="26"/>
-    <col min="52" max="52" width="9.28515625" style="26" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="26"/>
+    <col min="43" max="43" width="11.44140625" style="26" customWidth="1"/>
+    <col min="44" max="44" width="9.88671875" style="26" customWidth="1"/>
+    <col min="45" max="51" width="9.109375" style="26"/>
+    <col min="52" max="52" width="9.33203125" style="26" customWidth="1"/>
+    <col min="53" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="Q1" s="46" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="Q1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="Y1" s="53" t="s">
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="Y1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AG1" s="46" t="s">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AG1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AO1" s="48" t="s">
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AO1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AW1" s="46" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AW1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BE1" s="53" t="s">
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BE1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="55"/>
-      <c r="BN1" s="46" t="s">
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="61"/>
+      <c r="BN1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-    </row>
-    <row r="2" spans="1:72" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+    </row>
+    <row r="2" spans="1:72" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -23757,7 +23793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -23975,7 +24011,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -24193,7 +24229,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -24411,7 +24447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E6" s="26">
         <v>-0.05</v>
       </c>
@@ -24494,7 +24530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E7" s="26">
         <v>0.05</v>
       </c>
@@ -24577,7 +24613,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E8" s="26">
         <v>0.05</v>
       </c>
@@ -24660,7 +24696,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E9" s="26">
         <v>0</v>
       </c>
@@ -24767,7 +24803,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E10" s="26">
         <v>-0.1</v>
       </c>
@@ -24898,7 +24934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E11" s="26">
         <v>0</v>
       </c>
@@ -24944,9 +24980,9 @@
       <c r="AM11" s="26">
         <v>2.06</v>
       </c>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
       <c r="AS11" s="26">
         <v>-0.2</v>
       </c>
@@ -24984,7 +25020,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E12" s="26">
         <v>0.05</v>
       </c>
@@ -25067,7 +25103,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E13" s="26">
         <v>0</v>
       </c>
@@ -25150,7 +25186,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E14" s="26">
         <v>-0.05</v>
       </c>
@@ -25233,7 +25269,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E15" s="26">
         <v>-0.05</v>
       </c>
@@ -25316,7 +25352,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="E16" s="26">
         <v>0</v>
       </c>
@@ -25399,7 +25435,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E17" s="26">
         <v>0.05</v>
       </c>
@@ -25482,7 +25518,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E18" s="26">
         <v>0.05</v>
       </c>
@@ -25565,7 +25601,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E19" s="26">
         <v>-0.05</v>
       </c>
@@ -25648,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E20" s="26">
         <v>0.05</v>
       </c>
@@ -25731,7 +25767,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="21" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E21" s="26">
         <v>-0.05</v>
       </c>
@@ -25814,7 +25850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E22" s="26">
         <v>-0.1</v>
       </c>
@@ -25897,7 +25933,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="23" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E23" s="26">
         <v>0</v>
       </c>
@@ -25980,7 +26016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E24" s="26">
         <v>0.05</v>
       </c>
@@ -26063,7 +26099,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="25" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E25" s="26">
         <v>-0.05</v>
       </c>
@@ -26146,7 +26182,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E26" s="26">
         <v>-0.05</v>
       </c>
@@ -26229,7 +26265,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="27" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E27" s="26">
         <v>0.05</v>
       </c>
@@ -26312,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E28" s="26">
         <v>-0.05</v>
       </c>
@@ -26395,7 +26431,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E29" s="26">
         <v>0.05</v>
       </c>
@@ -26478,7 +26514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E30" s="26">
         <v>0.1</v>
       </c>
@@ -26561,7 +26597,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E31" s="26">
         <v>0</v>
       </c>
@@ -26644,7 +26680,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="32" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E32" s="26">
         <v>0</v>
       </c>
@@ -26727,7 +26763,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E33" s="26">
         <v>0</v>
       </c>
@@ -26810,7 +26846,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E34" s="26">
         <v>0.05</v>
       </c>
@@ -26893,7 +26929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E35" s="26">
         <v>0</v>
       </c>
@@ -26976,7 +27012,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="36" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E36" s="26">
         <v>0.05</v>
       </c>
@@ -27059,7 +27095,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E37" s="26">
         <v>-0.05</v>
       </c>
@@ -27142,7 +27178,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E38" s="26">
         <v>0</v>
       </c>
@@ -27225,7 +27261,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="39" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E39" s="26">
         <v>0</v>
       </c>
@@ -27308,7 +27344,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="40" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E40" s="26">
         <v>0.05</v>
       </c>
@@ -27391,7 +27427,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="41" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E41" s="26">
         <v>0</v>
       </c>
@@ -27474,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E42" s="26">
         <v>0</v>
       </c>
@@ -27557,7 +27593,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="43" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E43" s="26">
         <v>0</v>
       </c>
@@ -27640,7 +27676,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="44" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E44" s="26">
         <v>0</v>
       </c>
@@ -27723,7 +27759,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E45" s="26">
         <v>0</v>
       </c>
@@ -27806,7 +27842,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E46" s="26">
         <v>0</v>
       </c>
@@ -27889,7 +27925,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E47" s="26">
         <v>0</v>
       </c>
@@ -27972,7 +28008,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="48" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E48" s="26">
         <v>0.1</v>
       </c>
@@ -28055,7 +28091,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="49" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E49" s="26">
         <v>-0.05</v>
       </c>
@@ -28138,7 +28174,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E50" s="26">
         <v>0.05</v>
       </c>
@@ -28221,7 +28257,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="51" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E51" s="26">
         <v>0.05</v>
       </c>
@@ -28304,7 +28340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E52" s="26">
         <v>0.05</v>
       </c>
@@ -28387,7 +28423,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E53" s="26">
         <v>0</v>
       </c>
@@ -28470,7 +28506,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E54" s="26">
         <v>0.1</v>
       </c>
@@ -28478,7 +28514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E55" s="26">
         <v>0.05</v>
       </c>
@@ -28508,109 +28544,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE1462-2AB6-4847-B67C-341A9B455A1C}">
   <dimension ref="A1:BX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="BW26" sqref="BW26:BW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="26" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="26"/>
+    <col min="1" max="1" width="7.88671875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="26" customWidth="1"/>
+    <col min="3" max="9" width="9.109375" style="26"/>
     <col min="10" max="10" width="9" style="26" customWidth="1"/>
-    <col min="11" max="41" width="9.140625" style="26"/>
+    <col min="11" max="41" width="9.109375" style="26"/>
     <col min="42" max="42" width="10" style="26" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" style="26" customWidth="1"/>
-    <col min="44" max="44" width="9.85546875" style="26" customWidth="1"/>
-    <col min="45" max="51" width="9.140625" style="26"/>
-    <col min="52" max="52" width="9.28515625" style="26" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="26"/>
+    <col min="43" max="43" width="11.44140625" style="26" customWidth="1"/>
+    <col min="44" max="44" width="9.88671875" style="26" customWidth="1"/>
+    <col min="45" max="51" width="9.109375" style="26"/>
+    <col min="52" max="52" width="9.33203125" style="26" customWidth="1"/>
+    <col min="53" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:76" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="Q1" s="46" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="Q1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="Y1" s="53" t="s">
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="Y1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AG1" s="46" t="s">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AG1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AO1" s="48" t="s">
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AO1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AW1" s="46" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AW1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BE1" s="53" t="s">
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BE1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="55"/>
-      <c r="BN1" s="46" t="s">
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="61"/>
+      <c r="BN1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-    </row>
-    <row r="2" spans="1:76" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+    </row>
+    <row r="2" spans="1:76" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -28806,7 +28842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -29024,7 +29060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -29242,7 +29278,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -29460,7 +29496,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E6" s="26">
         <v>0.05</v>
       </c>
@@ -29543,7 +29579,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E7" s="26">
         <v>0.05</v>
       </c>
@@ -29626,7 +29662,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E8" s="26">
         <v>0.05</v>
       </c>
@@ -29709,7 +29745,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E9" s="26">
         <v>0.05</v>
       </c>
@@ -29816,7 +29852,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E10" s="26">
         <v>0</v>
       </c>
@@ -29946,13 +29982,13 @@
       <c r="BT10" s="26">
         <v>0.1</v>
       </c>
-      <c r="BV10" s="45" t="s">
+      <c r="BV10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="BW10" s="45"/>
-      <c r="BX10" s="45"/>
-    </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BW10" s="51"/>
+      <c r="BX10" s="51"/>
+    </row>
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E11" s="26">
         <v>0</v>
       </c>
@@ -29998,9 +30034,9 @@
       <c r="AM11" s="26">
         <v>1.18</v>
       </c>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
       <c r="AS11" s="26">
         <v>-0.49</v>
       </c>
@@ -30044,7 +30080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E12" s="26">
         <v>0</v>
       </c>
@@ -30136,7 +30172,7 @@
         <v>3.859</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E13" s="26">
         <v>-0.05</v>
       </c>
@@ -30228,7 +30264,7 @@
         <v>4.2809999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E14" s="26">
         <v>0.05</v>
       </c>
@@ -30320,7 +30356,7 @@
         <v>4.1719999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E15" s="26">
         <v>0</v>
       </c>
@@ -30412,7 +30448,7 @@
         <v>4.0469999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="E16" s="26">
         <v>0</v>
       </c>
@@ -30495,7 +30531,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E17" s="26">
         <v>0.1</v>
       </c>
@@ -30578,7 +30614,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E18" s="26">
         <v>0.05</v>
       </c>
@@ -30660,13 +30696,13 @@
       <c r="BT18" s="26">
         <v>0.1</v>
       </c>
-      <c r="BV18" s="45" t="s">
+      <c r="BV18" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="BW18" s="45"/>
-      <c r="BX18" s="45"/>
-    </row>
-    <row r="19" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BW18" s="51"/>
+      <c r="BX18" s="51"/>
+    </row>
+    <row r="19" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E19" s="26">
         <v>0.05</v>
       </c>
@@ -30756,7 +30792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E20" s="26">
         <v>0</v>
       </c>
@@ -30848,7 +30884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E21" s="26">
         <v>0.05</v>
       </c>
@@ -30940,7 +30976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E22" s="26">
         <v>0</v>
       </c>
@@ -31032,7 +31068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E23" s="26">
         <v>0.05</v>
       </c>
@@ -31124,7 +31160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E24" s="26">
         <v>0.05</v>
       </c>
@@ -31207,7 +31243,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E25" s="26">
         <v>0.05</v>
       </c>
@@ -31290,7 +31326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E26" s="26">
         <v>0.05</v>
       </c>
@@ -31376,7 +31412,7 @@
         <v>-1.179</v>
       </c>
     </row>
-    <row r="27" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E27" s="26">
         <v>0.1</v>
       </c>
@@ -31459,7 +31495,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E28" s="26">
         <v>0</v>
       </c>
@@ -31542,7 +31578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E29" s="26">
         <v>0.05</v>
       </c>
@@ -31625,7 +31661,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E30" s="26">
         <v>0.05</v>
       </c>
@@ -31708,7 +31744,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E31" s="26">
         <v>0</v>
       </c>
@@ -31791,7 +31827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="5:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:76" x14ac:dyDescent="0.3">
       <c r="E32" s="26">
         <v>0</v>
       </c>
@@ -31874,7 +31910,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="33" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E33" s="26">
         <v>0.05</v>
       </c>
@@ -31957,7 +31993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E34" s="26">
         <v>0.05</v>
       </c>
@@ -32040,7 +32076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E35" s="26">
         <v>0</v>
       </c>
@@ -32123,7 +32159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E36" s="26">
         <v>0</v>
       </c>
@@ -32206,7 +32242,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E37" s="26">
         <v>0.05</v>
       </c>
@@ -32289,7 +32325,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E38" s="26">
         <v>0</v>
       </c>
@@ -32372,7 +32408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E39" s="26">
         <v>0</v>
       </c>
@@ -32455,7 +32491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E40" s="26">
         <v>-0.05</v>
       </c>
@@ -32538,7 +32574,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E41" s="26">
         <v>0.05</v>
       </c>
@@ -32621,7 +32657,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E42" s="26">
         <v>0</v>
       </c>
@@ -32704,7 +32740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E43" s="26">
         <v>0</v>
       </c>
@@ -32787,7 +32823,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E44" s="26">
         <v>0.1</v>
       </c>
@@ -32870,7 +32906,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E45" s="26">
         <v>0.1</v>
       </c>
@@ -32953,7 +32989,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="46" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E46" s="26">
         <v>0.05</v>
       </c>
@@ -33036,7 +33072,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E47" s="26">
         <v>0</v>
       </c>
@@ -33119,7 +33155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E48" s="26">
         <v>0.05</v>
       </c>
@@ -33202,7 +33238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E49" s="26">
         <v>0.05</v>
       </c>
@@ -33285,7 +33321,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E50" s="26">
         <v>0</v>
       </c>
@@ -33368,7 +33404,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E51" s="26">
         <v>0.05</v>
       </c>
@@ -33451,7 +33487,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E52" s="26">
         <v>0</v>
       </c>
@@ -33534,7 +33570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="5:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:72" x14ac:dyDescent="0.3">
       <c r="E53" s="26">
         <v>0</v>
       </c>
@@ -33642,126 +33678,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C14CCEB-3D70-4B52-93B4-7A18D0A803C5}">
   <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="I1" s="58" t="s">
+    <row r="1" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="R1" s="58" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="R1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="AA1" s="58" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="AA1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AJ1" s="58" t="s">
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AJ1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AS1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-    </row>
-    <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+    </row>
+    <row r="2" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="I2" s="53" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="I2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="R2" s="53" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+      <c r="R2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="55"/>
-      <c r="AA2" s="46" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="61"/>
+      <c r="AA2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AJ2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="55"/>
-      <c r="AS2" s="46" t="s">
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="61"/>
+      <c r="AS2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-    </row>
-    <row r="3" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+    </row>
+    <row r="3" spans="1:51" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -33894,7 +33930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -34022,7 +34058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -34150,7 +34186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -34278,7 +34314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E7" s="30">
         <v>0.05</v>
       </c>
@@ -34316,7 +34352,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E8" s="30">
         <v>0.1</v>
       </c>
@@ -34354,7 +34390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E9" s="30">
         <v>0.15</v>
       </c>
@@ -34364,11 +34400,11 @@
       <c r="G9" s="30">
         <v>0.1</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="30">
         <v>3.2067999999999999</v>
       </c>
@@ -34381,11 +34417,11 @@
       <c r="O9" s="30">
         <v>2.06</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
       <c r="U9" s="30">
         <v>3.1368</v>
       </c>
@@ -34398,11 +34434,11 @@
       <c r="X9" s="30">
         <v>0.15</v>
       </c>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
       <c r="AD9" s="30">
         <v>3.6132</v>
       </c>
@@ -34415,24 +34451,24 @@
       <c r="AG9" s="30">
         <v>0.05</v>
       </c>
-      <c r="AJ9" s="45" t="s">
+      <c r="AJ9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
       <c r="AM9" s="30">
         <v>2.5743</v>
       </c>
-      <c r="AS9" s="45" t="s">
+      <c r="AS9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
       <c r="AV9" s="30">
         <v>3.7339000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E10" s="30">
         <v>0.05</v>
       </c>
@@ -34442,8 +34478,8 @@
       <c r="G10" s="30">
         <v>0.1</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
       <c r="M10" s="30">
         <v>-0.1</v>
       </c>
@@ -34453,8 +34489,8 @@
       <c r="O10" s="30">
         <v>1.86</v>
       </c>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
       <c r="V10" s="30">
         <v>-0.05</v>
       </c>
@@ -34464,8 +34500,8 @@
       <c r="X10" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
       <c r="AE10" s="30">
         <v>0.24</v>
       </c>
@@ -34475,12 +34511,12 @@
       <c r="AG10" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E11" s="30">
         <v>0.1</v>
       </c>
@@ -34490,11 +34526,11 @@
       <c r="G11" s="30">
         <v>-0.15</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="30">
         <v>28.2</v>
       </c>
@@ -34507,11 +34543,11 @@
       <c r="O11" s="30">
         <v>1.91</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
       <c r="U11" s="30">
         <v>28.2</v>
       </c>
@@ -34524,11 +34560,11 @@
       <c r="X11" s="30">
         <v>0</v>
       </c>
-      <c r="AA11" s="45" t="s">
+      <c r="AA11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
       <c r="AD11" s="30">
         <v>28.29</v>
       </c>
@@ -34541,24 +34577,24 @@
       <c r="AG11" s="30">
         <v>0.1</v>
       </c>
-      <c r="AJ11" s="45" t="s">
+      <c r="AJ11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
       <c r="AM11" s="30">
         <v>20.5</v>
       </c>
-      <c r="AS11" s="45" t="s">
+      <c r="AS11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
       <c r="AV11" s="30">
         <v>20.92</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E12" s="30">
         <v>0.05</v>
       </c>
@@ -34568,8 +34604,8 @@
       <c r="G12" s="30">
         <v>0.1</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
       <c r="M12" s="30">
         <v>-0.15</v>
       </c>
@@ -34579,8 +34615,8 @@
       <c r="O12" s="30">
         <v>1.86</v>
       </c>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
       <c r="V12" s="30">
         <v>-0.2</v>
       </c>
@@ -34590,8 +34626,8 @@
       <c r="X12" s="30">
         <v>0</v>
       </c>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
       <c r="AE12" s="30">
         <v>0.28999999999999998</v>
       </c>
@@ -34601,12 +34637,12 @@
       <c r="AG12" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AS12" s="56"/>
-      <c r="AT12" s="56"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="62"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E13" s="30">
         <v>0.05</v>
       </c>
@@ -34616,11 +34652,11 @@
       <c r="G13" s="30">
         <v>0.1</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="25">
         <f>ABS((L11*J4)/(L9*L4))</f>
         <v>0.64871686849477728</v>
@@ -34634,11 +34670,11 @@
       <c r="O13" s="30">
         <v>2.0099999999999998</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
       <c r="U13" s="25">
         <f>ABS((U11*S4)/(U9*T4))</f>
         <v>0.68424942510107478</v>
@@ -34652,11 +34688,11 @@
       <c r="X13" s="30">
         <v>0.05</v>
       </c>
-      <c r="AA13" s="45" t="s">
+      <c r="AA13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
       <c r="AD13" s="25">
         <f>(ABS((AD9*AC4)/(AD11*AB4)))</f>
         <v>0.7446334553244196</v>
@@ -34670,26 +34706,26 @@
       <c r="AG13" s="30">
         <v>-0.1</v>
       </c>
-      <c r="AJ13" s="45" t="s">
+      <c r="AJ13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
       <c r="AM13" s="25" t="e">
         <f>ABS((AM11*AK4)/(AM9*AL4))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS13" s="45" t="s">
+      <c r="AS13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
       <c r="AV13" s="25" t="e">
         <f>(ABS((AV9*AU4)/(AV11*AT4)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E14" s="30">
         <v>0.05</v>
       </c>
@@ -34718,8 +34754,8 @@
       <c r="X14" s="30">
         <v>0.1</v>
       </c>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
       <c r="AE14" s="30">
         <v>0.28999999999999998</v>
       </c>
@@ -34729,12 +34765,12 @@
       <c r="AG14" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="63"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E15" s="30">
         <v>0.05</v>
       </c>
@@ -34772,7 +34808,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E16" s="30">
         <v>0.05</v>
       </c>
@@ -34810,7 +34846,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E17" s="30">
         <v>0.1</v>
       </c>
@@ -34848,7 +34884,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E18" s="30">
         <v>0.05</v>
       </c>
@@ -34886,7 +34922,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="19" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E19" s="30">
         <v>0</v>
       </c>
@@ -34924,7 +34960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E20" s="30">
         <v>0.1</v>
       </c>
@@ -34962,7 +34998,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E21" s="30">
         <v>0.1</v>
       </c>
@@ -35000,7 +35036,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E22" s="30">
         <v>0.05</v>
       </c>
@@ -35038,7 +35074,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E23" s="30">
         <v>0</v>
       </c>
@@ -35076,7 +35112,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E24" s="30">
         <v>0.05</v>
       </c>
@@ -35114,7 +35150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E25" s="30">
         <v>0.05</v>
       </c>
@@ -35152,7 +35188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E26" s="30">
         <v>0.05</v>
       </c>
@@ -35190,7 +35226,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E27" s="30">
         <v>0.05</v>
       </c>
@@ -35228,7 +35264,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E28" s="30">
         <v>0.1</v>
       </c>
@@ -35266,7 +35302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E29" s="30">
         <v>0.15</v>
       </c>
@@ -35304,7 +35340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E30" s="30">
         <v>0.1</v>
       </c>
@@ -35342,7 +35378,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E31" s="30">
         <v>0.1</v>
       </c>
@@ -35380,7 +35416,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="32" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E32" s="30">
         <v>0.05</v>
       </c>
@@ -35418,7 +35454,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E33" s="30">
         <v>0.1</v>
       </c>
@@ -35456,7 +35492,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E34" s="30">
         <v>0</v>
       </c>
@@ -35494,7 +35530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E35" s="30">
         <v>0.05</v>
       </c>
@@ -35532,7 +35568,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E36" s="30">
         <v>0.1</v>
       </c>
@@ -35570,7 +35606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E37" s="30">
         <v>0</v>
       </c>
@@ -35608,7 +35644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E38" s="30">
         <v>0</v>
       </c>
@@ -35646,7 +35682,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E39" s="30">
         <v>0.1</v>
       </c>
@@ -35684,7 +35720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E40" s="30">
         <v>0.15</v>
       </c>
@@ -35722,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E41" s="30">
         <v>0.1</v>
       </c>
@@ -35760,7 +35796,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="42" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E42" s="30">
         <v>0.1</v>
       </c>
@@ -35798,7 +35834,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="43" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E43" s="30">
         <v>0</v>
       </c>
@@ -35836,7 +35872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E44" s="30">
         <v>0.1</v>
       </c>
@@ -35874,7 +35910,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="45" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E45" s="30">
         <v>0</v>
       </c>
@@ -35912,7 +35948,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E46" s="30">
         <v>0</v>
       </c>
@@ -35950,7 +35986,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="47" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E47" s="30">
         <v>0.15</v>
       </c>
@@ -35988,7 +36024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E48" s="30">
         <v>0.05</v>
       </c>
@@ -36026,7 +36062,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E49" s="30">
         <v>0.1</v>
       </c>
@@ -36064,7 +36100,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E50" s="30">
         <v>0.05</v>
       </c>
@@ -36102,7 +36138,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E51" s="30">
         <v>0.05</v>
       </c>
@@ -36140,7 +36176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E52" s="30">
         <v>0.05</v>
       </c>
@@ -36178,7 +36214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E53" s="30">
         <v>0.05</v>
       </c>
@@ -36216,7 +36252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:33" x14ac:dyDescent="0.3">
       <c r="M54" s="30">
         <v>-0.15</v>
       </c>
@@ -36281,4 +36317,2477 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5973C8-9FA5-4EA4-A2E1-70088D059379}">
+  <dimension ref="A1:BX53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="35" customWidth="1"/>
+    <col min="3" max="9" width="9.109375" style="35"/>
+    <col min="10" max="10" width="9" style="35" customWidth="1"/>
+    <col min="11" max="16" width="9.109375" style="35"/>
+    <col min="17" max="17" width="12.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="41" width="9.109375" style="35"/>
+    <col min="42" max="42" width="10" style="35" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" style="35" customWidth="1"/>
+    <col min="44" max="44" width="9.88671875" style="35" customWidth="1"/>
+    <col min="45" max="51" width="9.109375" style="35"/>
+    <col min="52" max="52" width="9.33203125" style="35" customWidth="1"/>
+    <col min="53" max="16384" width="9.109375" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="Q1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="Y1" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AG1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AO1" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AW1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BE1" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="61"/>
+      <c r="BN1" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+    </row>
+    <row r="2" spans="1:76" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="BS2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT2" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <f>AVERAGE(E3:E1000)</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="C3" s="8">
+        <f>AVERAGE(F3:F1000)</f>
+        <v>2.7450980392156869E-2</v>
+      </c>
+      <c r="D3" s="9">
+        <f>AVERAGE(G3:G1000)</f>
+        <v>4.3137254901960791E-2</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>AVERAGE(M3:M1000)</f>
+        <v>-0.35579999999999989</v>
+      </c>
+      <c r="K3" s="8">
+        <f>AVERAGE(N3:N1000)</f>
+        <v>5.599999999999998E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <f>AVERAGE(O3:O1000)</f>
+        <v>1.807000000000001</v>
+      </c>
+      <c r="M3" s="35">
+        <v>-0.25</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f>AVERAGE(U3:U1000)</f>
+        <v>0.36470588235294105</v>
+      </c>
+      <c r="S3" s="8">
+        <f>AVERAGE(V3:V1000)</f>
+        <v>5.0980392156862744E-2</v>
+      </c>
+      <c r="T3" s="9">
+        <f>AVERAGE(W3:W1000)</f>
+        <v>-1.1064705882352943</v>
+      </c>
+      <c r="U3" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V3" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="W3" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5" t="e">
+        <f>AVERAGE(AC3:AC1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" s="8" t="e">
+        <f>AVERAGE(AD3:AD1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" s="9" t="e">
+        <f>AVERAGE(AE3:AE1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="e">
+        <f>AVERAGE(AK3:AK1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI3" s="8" t="e">
+        <f>AVERAGE(AL3:AL1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ3" s="9" t="e">
+        <f>AVERAGE(AM3:AM1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="5" t="e">
+        <f>AVERAGE(AS3:AS1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ3" s="8" t="e">
+        <f>AVERAGE(AT3:AT1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR3" s="9" t="e">
+        <f>AVERAGE(AU3:AU1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="5" t="e">
+        <f>AVERAGE(BA3:BA1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY3" s="8" t="e">
+        <f>AVERAGE(BB3:BB1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ3" s="9" t="e">
+        <f>AVERAGE(BC3:BC1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="5" t="e">
+        <f>AVERAGE(BI3:BI1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG3" s="8" t="e">
+        <f>AVERAGE(BJ3:BJ1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH3" s="9" t="e">
+        <f>AVERAGE(BK3:BK1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="5" t="e">
+        <f>AVERAGE(BR3:BR1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP3" s="8" t="e">
+        <f>AVERAGE(BS3:BS1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ3" s="9" t="e">
+        <f>AVERAGE(BT3:BT1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <f>MAX(E3:E1000)</f>
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="8">
+        <f>MAX(F3:F1000)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="9">
+        <f>MAX(G3:G1000)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <f>MAX(M3:M1000)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="K4" s="8">
+        <f>MAX(N3:N1000)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="9">
+        <f>MAX(O3:O1000)</f>
+        <v>1.86</v>
+      </c>
+      <c r="M4" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <f>MAX(U3:U1000)</f>
+        <v>0.54</v>
+      </c>
+      <c r="S4" s="8">
+        <f>MAX(V3:V1000)</f>
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="9">
+        <f>MAX(W3:W1000)</f>
+        <v>-1.03</v>
+      </c>
+      <c r="U4" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V4" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="W4" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="8">
+        <f>MAX(AC3:AC1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <f>MAX(AD3:AD1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
+        <f>MAX(AE3:AE1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="8">
+        <f>MAX(AK3:AK1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <f>MAX(AL3:AL1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f>MAX(AM3:AM1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="8">
+        <f>MAX(AS3:AS1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <f>MAX(AT3:AT1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="9">
+        <f>MAX(AU3:AU1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="8">
+        <f>MAX(BA3:BA1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="8">
+        <f>MAX(BB3:BB1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="9">
+        <f>MAX(BC3:BC1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="8">
+        <f>MAX(BI3:BI1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="8">
+        <f>MAX(BJ3:BJ1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="9">
+        <f>MAX(BK3:BK1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="8">
+        <f>MAX(BR3:BR1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="8">
+        <f>MAX(BS3:BS1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="9">
+        <f>MAX(BT3:BT1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f>MIN(E3:E1000)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="C5" s="11">
+        <f>MIN(F3:F1000)</f>
+        <v>-0.15</v>
+      </c>
+      <c r="D5" s="12">
+        <f>MIN(G3:G1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="11">
+        <f>MIN(M3:M1000)</f>
+        <v>-0.49</v>
+      </c>
+      <c r="K5" s="11">
+        <f>MIN(N3:N1000)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="L5" s="12">
+        <f>MIN(O3:O1000)</f>
+        <v>1.77</v>
+      </c>
+      <c r="M5" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N5" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O5" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="11">
+        <f>MIN(U3:U1000)</f>
+        <v>0.25</v>
+      </c>
+      <c r="S5" s="11">
+        <f>MIN(V3:V1000)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="T5" s="12">
+        <f>MIN(W3:W1000)</f>
+        <v>-1.18</v>
+      </c>
+      <c r="U5" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V5" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="11">
+        <f>MIN(AC3:AC1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <f>MIN(AD3:AD1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
+        <f>MIN(AE3:AE1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="11">
+        <f>MIN(AK3:AK1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <f>MIN(AL3:AL1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="12">
+        <f>MIN(AM3:AM1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="11">
+        <f>MIN(AS3:AS1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="11">
+        <f>MIN(AT3:AT1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="12">
+        <f>MIN(AU3:AU1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="11">
+        <f>MIN(BA3:BA1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="11">
+        <f>MIN(BB3:BB1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f>MIN(BC3:BC1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="11">
+        <f>MIN(BI3:BI1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="11">
+        <f>MIN(BJ3:BJ1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="12">
+        <f>MIN(BK3:BK1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BN5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="11">
+        <f>MIN(BR3:BR1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BP5" s="11">
+        <f>MIN(BS3:BS1000)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="12">
+        <f>MIN(BT3:BT1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E6" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N6" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="O6" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U6" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V6" s="35">
+        <v>0</v>
+      </c>
+      <c r="W6" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E7" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N7" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="U7" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="V7" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W7" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N8" s="35">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U8" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W8" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E9" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N9" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V9" s="35">
+        <v>0</v>
+      </c>
+      <c r="W9" s="35">
+        <v>-1.18</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN9" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E10" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="35">
+        <v>3.4548999999999999</v>
+      </c>
+      <c r="M10" s="35">
+        <v>-0.2</v>
+      </c>
+      <c r="N10" s="35">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="35">
+        <v>3.7351000000000001</v>
+      </c>
+      <c r="U10" s="35">
+        <v>0.49</v>
+      </c>
+      <c r="V10" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W10" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>3.4455</v>
+      </c>
+      <c r="AG10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI10" s="35">
+        <v>3.4455</v>
+      </c>
+      <c r="AO10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ10" s="35">
+        <v>3.3934000000000002</v>
+      </c>
+      <c r="AW10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY10" s="35">
+        <v>3.3934000000000002</v>
+      </c>
+      <c r="BE10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG10" s="35">
+        <v>3.4424000000000001</v>
+      </c>
+      <c r="BN10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP10" s="35">
+        <v>3.4424000000000001</v>
+      </c>
+      <c r="BV10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW10" s="51"/>
+      <c r="BX10" s="51"/>
+    </row>
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E11" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="35">
+        <v>14.05</v>
+      </c>
+      <c r="M11" s="35">
+        <v>-0.25</v>
+      </c>
+      <c r="N11" s="35">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="35">
+        <v>13.98</v>
+      </c>
+      <c r="U11" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V11" s="35">
+        <v>0</v>
+      </c>
+      <c r="W11" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="Y11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AW11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX11" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E12" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="35">
+        <v>-0.49</v>
+      </c>
+      <c r="N12" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="U12" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V12" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W12" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BV12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW12" s="35">
+        <v>3.891</v>
+      </c>
+      <c r="BX12" s="35">
+        <v>3.859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N13" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="U13" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V13" s="35">
+        <v>0</v>
+      </c>
+      <c r="W13" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="BV13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW13" s="35">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="BX13" s="35">
+        <v>4.2809999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="25">
+        <f>(K11*ABS(J3)*K13)/(K10*(ABS(L3)*K12)*10)</f>
+        <v>0.80073467192710346</v>
+      </c>
+      <c r="M14" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O14" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="25">
+        <f>(S10*(ABS(T3)*S12)*10)/(S11*R3*S13)</f>
+        <v>0.81057306520836259</v>
+      </c>
+      <c r="U14" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V14" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W14" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BV14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW14" s="35">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="BX14" s="35">
+        <v>4.1719999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M15" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N15" s="35">
+        <v>0</v>
+      </c>
+      <c r="O15" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U15" s="35">
+        <v>0.49</v>
+      </c>
+      <c r="V15" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BV15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW15" s="35">
+        <v>3.798</v>
+      </c>
+      <c r="BX15" s="35">
+        <v>4.0469999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N16" s="35">
+        <v>0</v>
+      </c>
+      <c r="O16" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U16" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V16" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W16" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="17" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="35">
+        <v>5</v>
+      </c>
+      <c r="M17" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N17" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="O17" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U17" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V17" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W17" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="18" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="35">
+        <f>K17*SQRT(K11/(3*(K11+K10*2)))</f>
+        <v>2.3634911038676845</v>
+      </c>
+      <c r="M18" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N18" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O18" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U18" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V18" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W18" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BV18" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW18" s="51"/>
+      <c r="BX18" s="51"/>
+    </row>
+    <row r="19" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="35">
+        <f>K18*K14</f>
+        <v>1.8925292736581178</v>
+      </c>
+      <c r="M19" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N19" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U19" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V19" s="35">
+        <v>0</v>
+      </c>
+      <c r="W19" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BW19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX19" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E20" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M20" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N20" s="35">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U20" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V20" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="W20" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="BV20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW20" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="BX20" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E21" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F21" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36">
+        <f>K17*K11/(2*(K11+2*K10))</f>
+        <v>1.6758270594185058</v>
+      </c>
+      <c r="M21" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N21" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O21" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U21" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V21" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W21" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BV21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW21" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="BX21" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E22" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36">
+        <f>K21*K14</f>
+        <v>1.3418928306300397</v>
+      </c>
+      <c r="M22" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N22" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O22" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U22" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V22" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W22" s="35">
+        <v>-1.08</v>
+      </c>
+      <c r="BV22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW22" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="BX22" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>0</v>
+      </c>
+      <c r="M23" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N23" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U23" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V23" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W23" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BV23" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW23" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="BX23" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E24" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M24" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N24" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O24" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U24" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V24" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W24" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="25" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M25" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N25" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O25" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U25" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V25" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W25" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E26" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
+      <c r="M26" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N26" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O26" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U26" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V26" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W26" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BW26" s="35">
+        <v>-1.179</v>
+      </c>
+    </row>
+    <row r="27" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E27" s="35">
+        <v>0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0</v>
+      </c>
+      <c r="M27" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N27" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U27" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V27" s="35">
+        <v>0</v>
+      </c>
+      <c r="W27" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E28" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M28" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N28" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="O28" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U28" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V28" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W28" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E29" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M29" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N29" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O29" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U29" s="35">
+        <v>0.54</v>
+      </c>
+      <c r="V29" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W29" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="30" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E30" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N30" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O30" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U30" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V30" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W30" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0</v>
+      </c>
+      <c r="G31" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M31" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N31" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U31" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V31" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W31" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="32" spans="5:76" x14ac:dyDescent="0.3">
+      <c r="E32" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M32" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N32" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O32" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U32" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V32" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="W32" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="33" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E33" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N33" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O33" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="U33" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V33" s="35">
+        <v>0</v>
+      </c>
+      <c r="W33" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E34" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F34" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="M34" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N34" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O34" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U34" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V34" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="W34" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E35" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M35" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N35" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U35" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V35" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W35" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E36" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="M36" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N36" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O36" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U36" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V36" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W36" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
+      <c r="M37" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N37" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O37" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U37" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V37" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="W37" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M38" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N38" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O38" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U38" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V38" s="35">
+        <v>0</v>
+      </c>
+      <c r="W38" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E39" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M39" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N39" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O39" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U39" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V39" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W39" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E40" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G40" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M40" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N40" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O40" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U40" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V40" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W40" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E41" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F41" s="35">
+        <v>-0.15</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M41" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N41" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O41" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U41" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V41" s="35">
+        <v>0</v>
+      </c>
+      <c r="W41" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0</v>
+      </c>
+      <c r="G42" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M42" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N42" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O42" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U42" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V42" s="35">
+        <v>0</v>
+      </c>
+      <c r="W42" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E43" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0</v>
+      </c>
+      <c r="M43" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N43" s="35">
+        <v>0</v>
+      </c>
+      <c r="O43" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U43" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V43" s="35">
+        <v>0</v>
+      </c>
+      <c r="W43" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E44" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M44" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N44" s="35">
+        <v>0</v>
+      </c>
+      <c r="O44" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U44" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V44" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="W44" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E45" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="M45" s="35">
+        <v>-0.49</v>
+      </c>
+      <c r="N45" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O45" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U45" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V45" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W45" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E46" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M46" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N46" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O46" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U46" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V46" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="W46" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E47" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M47" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N47" s="35">
+        <v>0</v>
+      </c>
+      <c r="O47" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U47" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="V47" s="35">
+        <v>0</v>
+      </c>
+      <c r="W47" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E48" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F48" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M48" s="35">
+        <v>-0.44</v>
+      </c>
+      <c r="N48" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O48" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U48" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V48" s="35">
+        <v>0</v>
+      </c>
+      <c r="W48" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E49" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M49" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="N49" s="35">
+        <v>0</v>
+      </c>
+      <c r="O49" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="U49" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V49" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="W49" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M50" s="35">
+        <v>-0.39</v>
+      </c>
+      <c r="N50" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="O50" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U50" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V50" s="35">
+        <v>0</v>
+      </c>
+      <c r="W50" s="35">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="51" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E51" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F51" s="35">
+        <v>0</v>
+      </c>
+      <c r="G51" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M51" s="35">
+        <v>-0.34</v>
+      </c>
+      <c r="N51" s="35">
+        <v>-0.05</v>
+      </c>
+      <c r="O51" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="U51" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V51" s="35">
+        <v>0</v>
+      </c>
+      <c r="W51" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="35">
+        <v>-0.2</v>
+      </c>
+      <c r="N52" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="O52" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="U52" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="V52" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="W52" s="35">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E53" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="U53" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V53" s="35">
+        <v>0</v>
+      </c>
+      <c r="W53" s="35">
+        <v>-1.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BE1:BK1"/>
+    <mergeCell ref="BN1:BT1"/>
+    <mergeCell ref="BV10:BX10"/>
+    <mergeCell ref="BV18:BX18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01CommonDataForBattery/z_BalancerCurrentMeasurement.xlsx
+++ b/01CommonDataForBattery/z_BalancerCurrentMeasurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School Related\Masters\00-Grad_Research\Projects\00BattManager\03DataGen\01CommonDataForBattery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DAE23-5C30-4F61-935E-CE8F0ACD0E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C57923-58E4-4D03-BCF3-CFFAF912D181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{7F21F5D0-71D5-4345-AB2F-02B2A07085A9}"/>
   </bookViews>
@@ -646,13 +646,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,6 +669,2075 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-Cell Config Rnd5_B4_RTON_chg'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-Cell Config Rnd5_B4_RTON_chg'!$M$2:$M$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F60-4BE9-BD6B-4AF8EDAFF9AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1874666048"/>
+        <c:axId val="1747416448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1874666048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747416448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747416448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874666048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-Cell Config Rnd5_B4_RTON_chg'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-Cell Config Rnd5_B4_RTON_chg'!$N$2:$N$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B9E-439F-AF28-796D048F66AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1737092752"/>
+        <c:axId val="1746617856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1737092752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746617856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1746617856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1737092752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E189DB1-A8E2-4BAE-B41C-3C343CC4005B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA123BB6-CADC-4818-A9CE-36FB0B789404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20543,42 +22612,42 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="S1" s="64" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="S1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="AB1" s="64" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="AB1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AK1" s="64" t="s">
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AK1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
     </row>
     <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
@@ -21295,8 +23364,8 @@
       <c r="G10" s="1">
         <v>0.1</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
       <c r="N10" s="1">
         <v>-0.59</v>
       </c>
@@ -21306,8 +23375,8 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
       <c r="W10" s="1">
         <v>0.39</v>
       </c>
@@ -21317,8 +23386,8 @@
       <c r="Y10" s="1">
         <v>0.05</v>
       </c>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
@@ -21330,8 +23399,8 @@
       <c r="AH10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
       <c r="AM10" s="26"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1">
@@ -21433,8 +23502,8 @@
       <c r="G12" s="1">
         <v>0.1</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
       <c r="N12" s="1">
         <v>-0.88</v>
       </c>
@@ -21444,8 +23513,8 @@
       <c r="P12" s="1">
         <v>0.25</v>
       </c>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
       <c r="W12" s="1">
         <v>0.49</v>
       </c>
@@ -21455,8 +23524,8 @@
       <c r="Y12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
@@ -21468,8 +23537,8 @@
       <c r="AH12" s="1">
         <v>0.15</v>
       </c>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
       <c r="AM12" s="26"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1">
@@ -23453,13 +25522,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AB12:AC12"/>
@@ -23472,20 +25548,13 @@
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AK11:AM11"/>
     <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="S2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33655,11 +35724,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BV10:BX10"/>
-    <mergeCell ref="BV18:BX18"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="BE1:BK1"/>
-    <mergeCell ref="BN1:BT1"/>
     <mergeCell ref="AP11:AR11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
@@ -33667,6 +35731,11 @@
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BV10:BX10"/>
+    <mergeCell ref="BV18:BX18"/>
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BE1:BK1"/>
+    <mergeCell ref="BN1:BT1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33695,51 +35764,51 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="R1" s="64" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="R1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="AA1" s="64" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="AA1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AJ1" s="64" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AJ1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AS1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
     </row>
     <row r="2" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
@@ -34478,8 +36547,8 @@
       <c r="G10" s="30">
         <v>0.1</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
       <c r="M10" s="30">
         <v>-0.1</v>
       </c>
@@ -34489,8 +36558,8 @@
       <c r="O10" s="30">
         <v>1.86</v>
       </c>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
       <c r="V10" s="30">
         <v>-0.05</v>
       </c>
@@ -34500,8 +36569,8 @@
       <c r="X10" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
       <c r="AE10" s="30">
         <v>0.24</v>
       </c>
@@ -34511,10 +36580,10 @@
       <c r="AG10" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E11" s="30">
@@ -34604,8 +36673,8 @@
       <c r="G12" s="30">
         <v>0.1</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
       <c r="M12" s="30">
         <v>-0.15</v>
       </c>
@@ -34615,8 +36684,8 @@
       <c r="O12" s="30">
         <v>1.86</v>
       </c>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="V12" s="30">
         <v>-0.2</v>
       </c>
@@ -34626,8 +36695,8 @@
       <c r="X12" s="30">
         <v>0</v>
       </c>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
       <c r="AE12" s="30">
         <v>0.28999999999999998</v>
       </c>
@@ -34637,10 +36706,10 @@
       <c r="AG12" s="30">
         <v>-0.05</v>
       </c>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E13" s="30">
@@ -36274,16 +38343,28 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="AJ2:AP2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AJ1:AP1"/>
-    <mergeCell ref="AS1:AY1"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AS12:AT12"/>
     <mergeCell ref="R9:T9"/>
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AJ9:AL9"/>
@@ -36292,28 +38373,16 @@
     <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AJ10:AK10"/>
     <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AJ1:AP1"/>
+    <mergeCell ref="AS1:AY1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AJ2:AP2"/>
+    <mergeCell ref="AS2:AY2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36324,7 +38393,7 @@
   <dimension ref="A1:BX53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="N2" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37604,6 +39673,10 @@
       <c r="G16" s="35">
         <v>0.05</v>
       </c>
+      <c r="L16" s="35">
+        <f>L3+ABS(J3)</f>
+        <v>2.1628000000000007</v>
+      </c>
       <c r="M16" s="35">
         <v>-0.34</v>
       </c>
@@ -38775,19 +40848,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BE1:BK1"/>
+    <mergeCell ref="BN1:BT1"/>
+    <mergeCell ref="BV10:BX10"/>
+    <mergeCell ref="BV18:BX18"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="BE1:BK1"/>
-    <mergeCell ref="BN1:BT1"/>
-    <mergeCell ref="BV10:BX10"/>
-    <mergeCell ref="BV18:BX18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>